--- a/codelists/Asthma_attack.xlsx
+++ b/codelists/Asthma_attack.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\NACAP\2023\Primary care\codelists_received_from_jenni\Finalised_codelists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas4.cc.ic.ac.uk\aadamson\GitHub\primary_care2022\codelists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5646EC9E-09AE-4B94-9014-8043E3D41D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510BA2B-9F50-4071-8E04-52D01AD27A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="115">
   <si>
     <t>conceptId</t>
   </si>
@@ -350,6 +350,21 @@
   </si>
   <si>
     <t>jkq</t>
+  </si>
+  <si>
+    <t>201031000000108</t>
+  </si>
+  <si>
+    <t>Asthma trigger - respiratory infection (finding)</t>
+  </si>
+  <si>
+    <t>1789.00</t>
+  </si>
+  <si>
+    <t>Asthma trigger - respiratory infection</t>
+  </si>
+  <si>
+    <t>3e+05</t>
   </si>
 </sst>
 </file>
@@ -701,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,6 +1637,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H59">
     <sortCondition ref="H1:H59"/>
